--- a/static/ModelTrainingCode/TaskPriorityData.xlsx
+++ b/static/ModelTrainingCode/TaskPriorityData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
   <si>
     <t>Finish the quarterly report before the deadline</t>
   </si>
@@ -227,6 +227,300 @@
   </si>
   <si>
     <t>Task Priority</t>
+  </si>
+  <si>
+    <t>Submit the progress report to the project manager</t>
+  </si>
+  <si>
+    <t>Follow up with the vendor for product delivery</t>
+  </si>
+  <si>
+    <t>Coordinate with the development team for bug fixing</t>
+  </si>
+  <si>
+    <t>Prepare the training materials for new hires</t>
+  </si>
+  <si>
+    <t>Review and update the marketing campaign strategy</t>
+  </si>
+  <si>
+    <t>Approve the budget allocation for the upcoming project</t>
+  </si>
+  <si>
+    <t>Update the company website with new product information</t>
+  </si>
+  <si>
+    <t>Conduct market research for new product launch</t>
+  </si>
+  <si>
+    <t>Coordinate with the IT department for system upgrades</t>
+  </si>
+  <si>
+    <t>Analyze financial reports and prepare quarterly statements</t>
+  </si>
+  <si>
+    <t>Attend the industry conference to network with potential clients</t>
+  </si>
+  <si>
+    <t>Develop a training program for employee skill enhancement</t>
+  </si>
+  <si>
+    <t>Review and optimize website performance for better user experience</t>
+  </si>
+  <si>
+    <t>Manage inventory levels and reorder stock when necessary</t>
+  </si>
+  <si>
+    <t>Collaborate with the design team on creating new product prototypes</t>
+  </si>
+  <si>
+    <t>Create and deliver sales presentations to prospective customers</t>
+  </si>
+  <si>
+    <t>Conduct performance appraisals for team members</t>
+  </si>
+  <si>
+    <t>Implement new software systems to improve workflow efficiency</t>
+  </si>
+  <si>
+    <t>Lead strategic planning sessions to set company goals</t>
+  </si>
+  <si>
+    <t>Coordinate with external auditors for financial statement reviews</t>
+  </si>
+  <si>
+    <t>Develop marketing materials for product launch campaigns</t>
+  </si>
+  <si>
+    <t>Respond to customer inquiries and provide prompt assistance</t>
+  </si>
+  <si>
+    <t>Monitor project progress and update stakeholders on status</t>
+  </si>
+  <si>
+    <t>Coordinate with suppliers for timely delivery of materials</t>
+  </si>
+  <si>
+    <t>Analyze customer feedback and recommend product improvements</t>
+  </si>
+  <si>
+    <t>Lead cross-functional teams in implementing process improvements</t>
+  </si>
+  <si>
+    <t>Prepare and present financial reports to executive management</t>
+  </si>
+  <si>
+    <t>Resolve customer complaints and ensure customer satisfaction</t>
+  </si>
+  <si>
+    <t>Monitor market trends and competitors' activities</t>
+  </si>
+  <si>
+    <t>Manage social media accounts and engage with followers</t>
+  </si>
+  <si>
+    <t>Develop and implement employee training programs</t>
+  </si>
+  <si>
+    <t>Research and propose cost-saving initiatives</t>
+  </si>
+  <si>
+    <t>Review and finalize the project timeline</t>
+  </si>
+  <si>
+    <t>Coordinate with the marketing team for campaign execution</t>
+  </si>
+  <si>
+    <t>Prepare the monthly sales report for management review</t>
+  </si>
+  <si>
+    <t>Update the customer database with new contact information</t>
+  </si>
+  <si>
+    <t>Respond to urgent customer inquiries via phone and email</t>
+  </si>
+  <si>
+    <t>Conduct product training sessions for the sales team</t>
+  </si>
+  <si>
+    <t>Analyze market data and identify new business opportunities</t>
+  </si>
+  <si>
+    <t>Develop and implement customer retention strategies</t>
+  </si>
+  <si>
+    <t>Coordinate with the HR department for recruitment activities</t>
+  </si>
+  <si>
+    <t>Prepare and present project proposals to potential clients</t>
+  </si>
+  <si>
+    <t>Follow up with suppliers for price negotiations and order placement</t>
+  </si>
+  <si>
+    <t>Review and approve expense reports for reimbursement</t>
+  </si>
+  <si>
+    <t>Monitor and analyze website traffic and performance metrics</t>
+  </si>
+  <si>
+    <t>Attend industry conferences to stay updated on market trends</t>
+  </si>
+  <si>
+    <t>Prepare and conduct team-building activities for staff members</t>
+  </si>
+  <si>
+    <t>Coordinate with the finance department for budget planning</t>
+  </si>
+  <si>
+    <t>Review and update company policies and procedures</t>
+  </si>
+  <si>
+    <t>Respond to high-priority customer support tickets</t>
+  </si>
+  <si>
+    <t>Conduct quality control checks on finished products</t>
+  </si>
+  <si>
+    <t>Develop sales strategies to achieve revenue targets</t>
+  </si>
+  <si>
+    <t>Coordinate with the logistics team for product shipments</t>
+  </si>
+  <si>
+    <t>Review and analyze customer feedback surveys</t>
+  </si>
+  <si>
+    <t>Prepare and deliver training sessions for new employees</t>
+  </si>
+  <si>
+    <t>Monitor project expenses and ensure budget adherence</t>
+  </si>
+  <si>
+    <t>Respond to urgent email inquiries from clients</t>
+  </si>
+  <si>
+    <t>Conduct market research to identify target demographics</t>
+  </si>
+  <si>
+    <t>Collaborate with the design team to create new product packaging</t>
+  </si>
+  <si>
+    <t>Review and approve content for marketing materials</t>
+  </si>
+  <si>
+    <t>Prepare sales forecasts for upcoming quarters</t>
+  </si>
+  <si>
+    <t>Coordinate with the IT department for system maintenance</t>
+  </si>
+  <si>
+    <t>Analyze sales data and identify trends for strategic planning</t>
+  </si>
+  <si>
+    <t>Attend product training sessions to stay updated on features</t>
+  </si>
+  <si>
+    <t>Prepare and present financial reports to stakeholders</t>
+  </si>
+  <si>
+    <t>Respond to customer complaints and resolve issues</t>
+  </si>
+  <si>
+    <t>Conduct competitor analysis to inform marketing strategies</t>
+  </si>
+  <si>
+    <t>Develop and implement employee recognition programs</t>
+  </si>
+  <si>
+    <t>Coordinate with the legal department for contract reviews</t>
+  </si>
+  <si>
+    <t>Review and approve time-off requests for employees</t>
+  </si>
+  <si>
+    <t>Create and deliver presentations at industry conferences</t>
+  </si>
+  <si>
+    <t>Analyze inventory levels and optimize stock management</t>
+  </si>
+  <si>
+    <t>Follow up with leads generated from marketing campaigns</t>
+  </si>
+  <si>
+    <t>Coordinate with the engineering team for product development</t>
+  </si>
+  <si>
+    <t>Review and update the company's social media strategy</t>
+  </si>
+  <si>
+    <t>Prepare and deliver performance evaluations for team members</t>
+  </si>
+  <si>
+    <t>Analyze customer buying patterns and recommend product improvements</t>
+  </si>
+  <si>
+    <t>Coordinate with the operations team for process improvements</t>
+  </si>
+  <si>
+    <t>Prepare and present project progress reports to stakeholders</t>
+  </si>
+  <si>
+    <t>Respond to customer inquiries on social media platforms</t>
+  </si>
+  <si>
+    <t>Conduct market segmentation analysis for targeted marketing</t>
+  </si>
+  <si>
+    <t>Develop and implement safety protocols in the workplace</t>
+  </si>
+  <si>
+    <t>Coordinate with suppliers to ensure timely delivery of materials</t>
+  </si>
+  <si>
+    <t>Review and update employee benefits and compensation plans</t>
+  </si>
+  <si>
+    <t>Coordinate with the research and development team for new product ideas</t>
+  </si>
+  <si>
+    <t>Analyze customer satisfaction surveys and identify areas for improvement</t>
+  </si>
+  <si>
+    <t>Develop and implement training programs for customer support staff</t>
+  </si>
+  <si>
+    <t>Coordinate with the marketing team for promotional campaigns</t>
+  </si>
+  <si>
+    <t>Prepare and present business cases for new investment opportunities</t>
+  </si>
+  <si>
+    <t>Monitor and optimize website SEO performance</t>
+  </si>
+  <si>
+    <t>Coordinate with the procurement team for vendor selection</t>
+  </si>
+  <si>
+    <t>Review and approve marketing collateral designs</t>
+  </si>
+  <si>
+    <t>Prepare and conduct employee onboarding sessions</t>
+  </si>
+  <si>
+    <t>Coordinate with the manufacturing team for production planning</t>
+  </si>
+  <si>
+    <t>Analyze market trends and make pricing recommendations</t>
+  </si>
+  <si>
+    <t>Respond to customer inquiries via live chat support</t>
+  </si>
+  <si>
+    <t>Conduct user testing sessions for software usability assessment</t>
+  </si>
+  <si>
+    <t>Develop and implement performance improvement plans for underperforming employees</t>
   </si>
 </sst>
 </file>
@@ -568,15 +862,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="78.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,6 +1434,1350 @@
         <v>5</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>82</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>83</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>84</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>85</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>86</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>87</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>88</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>89</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>90</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>91</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>94</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>95</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>98</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>99</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>101</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>102</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>103</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>104</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>105</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>106</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>107</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>108</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>109</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>110</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>111</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>112</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>113</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>114</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>115</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>117</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>118</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>119</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>120</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>121</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>122</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>123</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>124</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>125</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>126</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>127</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>128</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>129</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>130</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>131</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>132</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>133</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>134</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>135</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>136</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>137</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>138</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>139</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>140</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>141</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>142</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>143</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>144</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>145</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>146</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>147</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>148</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>149</v>
+      </c>
+      <c r="B219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>150</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>151</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>152</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>153</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>154</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>155</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>156</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>157</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>158</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>159</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>160</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>161</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>162</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>163</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>164</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>165</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>166</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>167</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>168</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/ModelTrainingCode/TaskPriorityData.xlsx
+++ b/static/ModelTrainingCode/TaskPriorityData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="222">
   <si>
     <t>Finish the quarterly report before the deadline</t>
   </si>
@@ -521,19 +521,184 @@
   </si>
   <si>
     <t>Develop and implement performance improvement plans for underperforming employees</t>
+  </si>
+  <si>
+    <t>Prepare presentation for client meeting</t>
+  </si>
+  <si>
+    <t>Plan and host virtual movie night with colleagues.</t>
+  </si>
+  <si>
+    <t>Write a blog post on a technical topic.</t>
+  </si>
+  <si>
+    <t>Review and finalize monthly budget.</t>
+  </si>
+  <si>
+    <t>Complete online certification course.</t>
+  </si>
+  <si>
+    <t>Call utility company to update billing information.</t>
+  </si>
+  <si>
+    <t>Plan menu for family dinner gathering.</t>
+  </si>
+  <si>
+    <t>Collaborate with team on design mockups.</t>
+  </si>
+  <si>
+    <t>Start reading a new book on personal development.</t>
+  </si>
+  <si>
+    <t>Research and order new office supplies.</t>
+  </si>
+  <si>
+    <t>Help a friend move to a new apartment.</t>
+  </si>
+  <si>
+    <t>Respond to urgent customer support emails.</t>
+  </si>
+  <si>
+    <t>Attend webinar on time management techniques.</t>
+  </si>
+  <si>
+    <t>Clean out the garage.</t>
+  </si>
+  <si>
+    <t>Prepare project proposal for client pitch.</t>
+  </si>
+  <si>
+    <t>Schedule annual health checkup.</t>
+  </si>
+  <si>
+    <t>Participate in coding challenge on GitHub.</t>
+  </si>
+  <si>
+    <t>Water plants and tend to the garden.</t>
+  </si>
+  <si>
+    <t>Attend industry conference next month.</t>
+  </si>
+  <si>
+    <t>Plan and host virtual game night with friends.</t>
+  </si>
+  <si>
+    <t>Write thank-you notes to clients.</t>
+  </si>
+  <si>
+    <t>Pay monthly rent.</t>
+  </si>
+  <si>
+    <t>Review code for software project.</t>
+  </si>
+  <si>
+    <t>Schedule dentist appointment.</t>
+  </si>
+  <si>
+    <t>Attend team brainstorming session.</t>
+  </si>
+  <si>
+    <t>Buy groceries for the week.</t>
+  </si>
+  <si>
+    <t>Complete financial report for the quarter.</t>
+  </si>
+  <si>
+    <t>Go for a jog in the morning.</t>
+  </si>
+  <si>
+    <t>Send follow-up emails to potential clients.</t>
+  </si>
+  <si>
+    <t>Plan weekend trip itinerary.</t>
+  </si>
+  <si>
+    <t>Research new marketing strategies.</t>
+  </si>
+  <si>
+    <t>Call parents to catch up.</t>
+  </si>
+  <si>
+    <t>Attend online workshop on data visualization.</t>
+  </si>
+  <si>
+    <t>Fix leaking faucet at home.</t>
+  </si>
+  <si>
+    <t>Write article for company blog.</t>
+  </si>
+  <si>
+    <t>Organize closet and donate unused clothes.</t>
+  </si>
+  <si>
+    <t>Create social media content calendar.</t>
+  </si>
+  <si>
+    <t>Attend departmental staff meeting.</t>
+  </si>
+  <si>
+    <t>Set up new software on your computer.</t>
+  </si>
+  <si>
+    <t>Arrange dinner with friends this weekend.</t>
+  </si>
+  <si>
+    <t>Draft proposal for new project.</t>
+  </si>
+  <si>
+    <t>Book flights for upcoming vacation.</t>
+  </si>
+  <si>
+    <t>Review and sign lease agreement.</t>
+  </si>
+  <si>
+    <t>Update resume and LinkedIn profile.</t>
+  </si>
+  <si>
+    <t>Research recipes for dinner tonight.</t>
+  </si>
+  <si>
+    <t>Participate in team-building activity.</t>
+  </si>
+  <si>
+    <t>Pay credit card bill.</t>
+  </si>
+  <si>
+    <t>Develop a new feature for the app.</t>
+  </si>
+  <si>
+    <t>Pick up dry cleaning.</t>
+  </si>
+  <si>
+    <t>Prepare monthly budget spreadsheet.</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Task Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,8 +721,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,1911 +1042,3176 @@
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>39</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>23</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>24</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>25</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>78</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>80</v>
       </c>
       <c r="B89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>81</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>82</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>83</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>84</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>85</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>86</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>87</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>88</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>89</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>90</v>
       </c>
       <c r="B99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>91</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>92</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>93</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>94</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>95</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>96</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>97</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>98</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>99</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>100</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>101</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>102</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>18</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>19</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>20</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>23</v>
       </c>
       <c r="B117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>24</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>25</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>103</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>104</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>105</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>106</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>107</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>108</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>109</v>
       </c>
       <c r="B126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>110</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>111</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>112</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>113</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>114</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>115</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>116</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>117</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>118</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>119</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>120</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>121</v>
       </c>
       <c r="B138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>122</v>
       </c>
       <c r="B139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>18</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>19</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>20</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>21</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>22</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>23</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>24</v>
       </c>
       <c r="B146">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>25</v>
       </c>
       <c r="B147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>78</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>79</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>80</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>81</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>82</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>83</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>84</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>85</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>86</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>87</v>
       </c>
       <c r="B157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>88</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>89</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>90</v>
       </c>
       <c r="B160">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>91</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>92</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>93</v>
       </c>
       <c r="B163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>94</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>95</v>
       </c>
       <c r="B165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>96</v>
       </c>
       <c r="B166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>97</v>
       </c>
       <c r="B167">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>98</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>99</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>100</v>
       </c>
       <c r="B170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>101</v>
       </c>
       <c r="B171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>102</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>103</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>104</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>105</v>
       </c>
       <c r="B175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>106</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>107</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>108</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>109</v>
       </c>
       <c r="B179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>110</v>
       </c>
       <c r="B180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>111</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>112</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>113</v>
       </c>
       <c r="B183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>114</v>
       </c>
       <c r="B184">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>115</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>116</v>
       </c>
       <c r="B186">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>117</v>
       </c>
       <c r="B187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>118</v>
       </c>
       <c r="B188">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>119</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>120</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>121</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>122</v>
       </c>
       <c r="B192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>123</v>
       </c>
       <c r="B193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>124</v>
       </c>
       <c r="B194">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>125</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>126</v>
       </c>
       <c r="B196">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>127</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>128</v>
       </c>
       <c r="B198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>129</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>130</v>
       </c>
       <c r="B200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>131</v>
       </c>
       <c r="B201">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>132</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>133</v>
       </c>
       <c r="B203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>134</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>135</v>
       </c>
       <c r="B205">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>136</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>137</v>
       </c>
       <c r="B207">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>138</v>
       </c>
       <c r="B208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>139</v>
       </c>
       <c r="B209">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>140</v>
       </c>
       <c r="B210">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>141</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>142</v>
       </c>
       <c r="B212">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>143</v>
       </c>
       <c r="B213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>144</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>145</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>146</v>
       </c>
       <c r="B216">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>147</v>
       </c>
       <c r="B217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>148</v>
       </c>
       <c r="B218">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>149</v>
       </c>
       <c r="B219">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>150</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>151</v>
       </c>
       <c r="B221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>152</v>
       </c>
       <c r="B222">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>153</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>154</v>
       </c>
       <c r="B224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>155</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>156</v>
       </c>
       <c r="B226">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>157</v>
       </c>
       <c r="B227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>158</v>
       </c>
       <c r="B228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>159</v>
       </c>
       <c r="B229">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>160</v>
       </c>
       <c r="B230">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>161</v>
       </c>
       <c r="B231">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>162</v>
       </c>
       <c r="B232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>163</v>
       </c>
       <c r="B233">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>164</v>
       </c>
       <c r="B234">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>165</v>
       </c>
       <c r="B235">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>166</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>167</v>
       </c>
       <c r="B237">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>168</v>
       </c>
       <c r="B238">
         <v>4</v>
       </c>
+      <c r="C238" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B273">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B275">
+        <v>4</v>
+      </c>
+      <c r="C275" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B287">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>